--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H2">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I2">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J2">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.52011984882392</v>
+        <v>5.122124666666667</v>
       </c>
       <c r="N2">
-        <v>4.52011984882392</v>
+        <v>15.366374</v>
       </c>
       <c r="O2">
-        <v>0.08853253402303933</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="P2">
-        <v>0.08853253402303933</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="Q2">
-        <v>13.80079696229767</v>
+        <v>19.942218948842</v>
       </c>
       <c r="R2">
-        <v>13.80079696229767</v>
+        <v>179.479970539578</v>
       </c>
       <c r="S2">
-        <v>0.07453109281383755</v>
+        <v>0.06393205399257573</v>
       </c>
       <c r="T2">
-        <v>0.07453109281383755</v>
+        <v>0.06393205399257573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H3">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I3">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J3">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.1753901033388</v>
+        <v>34.19248466666667</v>
       </c>
       <c r="N3">
-        <v>34.1753901033388</v>
+        <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.669370279609227</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="P3">
-        <v>0.669370279609227</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="Q3">
-        <v>104.3440518609729</v>
+        <v>133.123275984482</v>
       </c>
       <c r="R3">
-        <v>104.3440518609729</v>
+        <v>1198.109483860338</v>
       </c>
       <c r="S3">
-        <v>0.5635092114656609</v>
+        <v>0.4267751993768311</v>
       </c>
       <c r="T3">
-        <v>0.5635092114656609</v>
+        <v>0.4267751993768311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H4">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I4">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J4">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.28650399062274</v>
+        <v>0.5566749999999999</v>
       </c>
       <c r="N4">
-        <v>1.28650399062274</v>
+        <v>1.670025</v>
       </c>
       <c r="O4">
-        <v>0.02519788459817461</v>
+        <v>0.01042327356567948</v>
       </c>
       <c r="P4">
-        <v>0.02519788459817461</v>
+        <v>0.01042327356567948</v>
       </c>
       <c r="Q4">
-        <v>3.927944603148016</v>
+        <v>2.167330054574999</v>
       </c>
       <c r="R4">
-        <v>3.927944603148016</v>
+        <v>19.505970491175</v>
       </c>
       <c r="S4">
-        <v>0.02121283318525809</v>
+        <v>0.006948166722282776</v>
       </c>
       <c r="T4">
-        <v>0.02121283318525809</v>
+        <v>0.006948166722282777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H5">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I5">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J5">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.074017590748</v>
+        <v>1.480867666666667</v>
       </c>
       <c r="N5">
-        <v>11.074017590748</v>
+        <v>4.442603</v>
       </c>
       <c r="O5">
-        <v>0.2168993017695591</v>
+        <v>0.02772800791168297</v>
       </c>
       <c r="P5">
-        <v>0.2168993017695591</v>
+        <v>0.02772800791168297</v>
       </c>
       <c r="Q5">
-        <v>33.81110975776241</v>
+        <v>5.765534649148999</v>
       </c>
       <c r="R5">
-        <v>33.81110975776241</v>
+        <v>51.889811842341</v>
       </c>
       <c r="S5">
-        <v>0.1825966258600106</v>
+        <v>0.01848352349510554</v>
       </c>
       <c r="T5">
-        <v>0.1825966258600106</v>
+        <v>0.01848352349510554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.573574015746792</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H6">
-        <v>0.573574015746792</v>
+        <v>11.680047</v>
       </c>
       <c r="I6">
-        <v>0.158150236675233</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J6">
-        <v>0.158150236675233</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.52011984882392</v>
+        <v>12.054774</v>
       </c>
       <c r="N6">
-        <v>4.52011984882392</v>
+        <v>36.164322</v>
       </c>
       <c r="O6">
-        <v>0.08853253402303933</v>
+        <v>0.2257155560685144</v>
       </c>
       <c r="P6">
-        <v>0.08853253402303933</v>
+        <v>0.2257155560685144</v>
       </c>
       <c r="Q6">
-        <v>2.592623293346718</v>
+        <v>46.93344229812599</v>
       </c>
       <c r="R6">
-        <v>2.592623293346718</v>
+        <v>422.4009806831339</v>
       </c>
       <c r="S6">
-        <v>0.01400144120920178</v>
+        <v>0.1504622617351949</v>
       </c>
       <c r="T6">
-        <v>0.01400144120920178</v>
+        <v>0.1504622617351949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.573574015746792</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H7">
-        <v>0.573574015746792</v>
+        <v>2.388977</v>
       </c>
       <c r="I7">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="J7">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.1753901033388</v>
+        <v>5.122124666666667</v>
       </c>
       <c r="N7">
-        <v>34.1753901033388</v>
+        <v>15.366374</v>
       </c>
       <c r="O7">
-        <v>0.669370279609227</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="P7">
-        <v>0.669370279609227</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="Q7">
-        <v>19.60211574128521</v>
+        <v>4.078879339933111</v>
       </c>
       <c r="R7">
-        <v>19.60211574128521</v>
+        <v>36.709914059398</v>
       </c>
       <c r="S7">
-        <v>0.1058610681435661</v>
+        <v>0.01307633492836301</v>
       </c>
       <c r="T7">
-        <v>0.1058610681435661</v>
+        <v>0.01307633492836301</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.573574015746792</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H8">
-        <v>0.573574015746792</v>
+        <v>2.388977</v>
       </c>
       <c r="I8">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="J8">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.28650399062274</v>
+        <v>34.19248466666667</v>
       </c>
       <c r="N8">
-        <v>1.28650399062274</v>
+        <v>102.577454</v>
       </c>
       <c r="O8">
-        <v>0.02519788459817461</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="P8">
-        <v>0.02519788459817461</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="Q8">
-        <v>0.7379052601757582</v>
+        <v>27.22835314717311</v>
       </c>
       <c r="R8">
-        <v>0.7379052601757582</v>
+        <v>245.0551783245579</v>
       </c>
       <c r="S8">
-        <v>0.003985051412916522</v>
+        <v>0.08729041376988156</v>
       </c>
       <c r="T8">
-        <v>0.003985051412916522</v>
+        <v>0.08729041376988156</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,1115 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.7963256666666666</v>
+      </c>
+      <c r="H9">
+        <v>2.388977</v>
+      </c>
+      <c r="I9">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="J9">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5566749999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.670025</v>
+      </c>
+      <c r="O9">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="P9">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="Q9">
+        <v>0.4432945904916666</v>
+      </c>
+      <c r="R9">
+        <v>3.989651314424999</v>
+      </c>
+      <c r="S9">
+        <v>0.001421142439897626</v>
+      </c>
+      <c r="T9">
+        <v>0.001421142439897626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.7963256666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.388977</v>
+      </c>
+      <c r="I10">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="J10">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.480867666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.442603</v>
+      </c>
+      <c r="O10">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="P10">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="Q10">
+        <v>1.179252931903444</v>
+      </c>
+      <c r="R10">
+        <v>10.613276387131</v>
+      </c>
+      <c r="S10">
+        <v>0.003780525241787705</v>
+      </c>
+      <c r="T10">
+        <v>0.003780525241787705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.573574015746792</v>
-      </c>
-      <c r="H9">
-        <v>0.573574015746792</v>
-      </c>
-      <c r="I9">
-        <v>0.158150236675233</v>
-      </c>
-      <c r="J9">
-        <v>0.158150236675233</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.074017590748</v>
-      </c>
-      <c r="N9">
-        <v>11.074017590748</v>
-      </c>
-      <c r="O9">
-        <v>0.2168993017695591</v>
-      </c>
-      <c r="P9">
-        <v>0.2168993017695591</v>
-      </c>
-      <c r="Q9">
-        <v>6.351768739975944</v>
-      </c>
-      <c r="R9">
-        <v>6.351768739975944</v>
-      </c>
-      <c r="S9">
-        <v>0.03430267590954855</v>
-      </c>
-      <c r="T9">
-        <v>0.03430267590954855</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.7963256666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.388977</v>
+      </c>
+      <c r="I11">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="J11">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.054774</v>
+      </c>
+      <c r="N11">
+        <v>36.164322</v>
+      </c>
+      <c r="O11">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="P11">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="Q11">
+        <v>9.599525942065998</v>
+      </c>
+      <c r="R11">
+        <v>86.39573347859398</v>
+      </c>
+      <c r="S11">
+        <v>0.03077478049988676</v>
+      </c>
+      <c r="T11">
+        <v>0.03077478049988676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.188156</v>
+      </c>
+      <c r="H12">
+        <v>0.564468</v>
+      </c>
+      <c r="I12">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J12">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.122124666666667</v>
+      </c>
+      <c r="N12">
+        <v>15.366374</v>
+      </c>
+      <c r="O12">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="P12">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="Q12">
+        <v>0.9637584887813334</v>
+      </c>
+      <c r="R12">
+        <v>8.673826399032</v>
+      </c>
+      <c r="S12">
+        <v>0.003089679232718948</v>
+      </c>
+      <c r="T12">
+        <v>0.003089679232718948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.188156</v>
+      </c>
+      <c r="H13">
+        <v>0.564468</v>
+      </c>
+      <c r="I13">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J13">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.19248466666667</v>
+      </c>
+      <c r="N13">
+        <v>102.577454</v>
+      </c>
+      <c r="O13">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="P13">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="Q13">
+        <v>6.433521144941333</v>
+      </c>
+      <c r="R13">
+        <v>57.90169030447199</v>
+      </c>
+      <c r="S13">
+        <v>0.02062499776258101</v>
+      </c>
+      <c r="T13">
+        <v>0.02062499776258101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.188156</v>
+      </c>
+      <c r="H14">
+        <v>0.564468</v>
+      </c>
+      <c r="I14">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J14">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.5566749999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.670025</v>
+      </c>
+      <c r="O14">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="P14">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="Q14">
+        <v>0.1047417413</v>
+      </c>
+      <c r="R14">
+        <v>0.9426756716999999</v>
+      </c>
+      <c r="S14">
+        <v>0.0003357878417264515</v>
+      </c>
+      <c r="T14">
+        <v>0.0003357878417264515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.188156</v>
+      </c>
+      <c r="H15">
+        <v>0.564468</v>
+      </c>
+      <c r="I15">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J15">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.480867666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.442603</v>
+      </c>
+      <c r="O15">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="P15">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="Q15">
+        <v>0.2786341366893333</v>
+      </c>
+      <c r="R15">
+        <v>2.507707230204</v>
+      </c>
+      <c r="S15">
+        <v>0.0008932633182242534</v>
+      </c>
+      <c r="T15">
+        <v>0.0008932633182242534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.188156</v>
+      </c>
+      <c r="H16">
+        <v>0.564468</v>
+      </c>
+      <c r="I16">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J16">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.054774</v>
+      </c>
+      <c r="N16">
+        <v>36.164322</v>
+      </c>
+      <c r="O16">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="P16">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="Q16">
+        <v>2.268178056744</v>
+      </c>
+      <c r="R16">
+        <v>20.413602510696</v>
+      </c>
+      <c r="S16">
+        <v>0.007271471763524755</v>
+      </c>
+      <c r="T16">
+        <v>0.007271471763524755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.923495</v>
+      </c>
+      <c r="I17">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J17">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.122124666666667</v>
+      </c>
+      <c r="N17">
+        <v>15.366374</v>
+      </c>
+      <c r="O17">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="P17">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="Q17">
+        <v>1.576752173014445</v>
+      </c>
+      <c r="R17">
+        <v>14.19076955713</v>
+      </c>
+      <c r="S17">
+        <v>0.00505485399175823</v>
+      </c>
+      <c r="T17">
+        <v>0.005054853991758229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.923495</v>
+      </c>
+      <c r="I18">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J18">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>34.19248466666667</v>
+      </c>
+      <c r="N18">
+        <v>102.577454</v>
+      </c>
+      <c r="O18">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="P18">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="Q18">
+        <v>10.52552954241444</v>
+      </c>
+      <c r="R18">
+        <v>94.72976588172999</v>
+      </c>
+      <c r="S18">
+        <v>0.03374342267188708</v>
+      </c>
+      <c r="T18">
+        <v>0.03374342267188708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.923495</v>
+      </c>
+      <c r="I19">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J19">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.5566749999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.670025</v>
+      </c>
+      <c r="O19">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="P19">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="Q19">
+        <v>0.1713621930416666</v>
+      </c>
+      <c r="R19">
+        <v>1.542259737375</v>
+      </c>
+      <c r="S19">
+        <v>0.00054936399033279</v>
+      </c>
+      <c r="T19">
+        <v>0.00054936399033279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.923495</v>
+      </c>
+      <c r="I20">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J20">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.480867666666667</v>
+      </c>
+      <c r="N20">
+        <v>4.442603</v>
+      </c>
+      <c r="O20">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="P20">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="Q20">
+        <v>0.4558579619427778</v>
+      </c>
+      <c r="R20">
+        <v>4.102721657485</v>
+      </c>
+      <c r="S20">
+        <v>0.001461418907827383</v>
+      </c>
+      <c r="T20">
+        <v>0.001461418907827382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.923495</v>
+      </c>
+      <c r="I21">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J21">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.054774</v>
+      </c>
+      <c r="N21">
+        <v>36.164322</v>
+      </c>
+      <c r="O21">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="P21">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="Q21">
+        <v>3.71084117171</v>
+      </c>
+      <c r="R21">
+        <v>33.39757054539</v>
+      </c>
+      <c r="S21">
+        <v>0.01189645438936538</v>
+      </c>
+      <c r="T21">
+        <v>0.01189645438936537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.964804</v>
+      </c>
+      <c r="I22">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J22">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.122124666666667</v>
+      </c>
+      <c r="N22">
+        <v>15.366374</v>
+      </c>
+      <c r="O22">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="P22">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="Q22">
+        <v>3.354657011188445</v>
+      </c>
+      <c r="R22">
+        <v>30.191913100696</v>
+      </c>
+      <c r="S22">
+        <v>0.01075457619415648</v>
+      </c>
+      <c r="T22">
+        <v>0.01075457619415648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.964804</v>
+      </c>
+      <c r="I23">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J23">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>34.19248466666667</v>
+      </c>
+      <c r="N23">
+        <v>102.577454</v>
+      </c>
+      <c r="O23">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="P23">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="Q23">
+        <v>22.39384354766844</v>
+      </c>
+      <c r="R23">
+        <v>201.544591929016</v>
+      </c>
+      <c r="S23">
+        <v>0.07179163053336989</v>
+      </c>
+      <c r="T23">
+        <v>0.07179163053336989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.964804</v>
+      </c>
+      <c r="I24">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J24">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.5566749999999999</v>
+      </c>
+      <c r="N24">
+        <v>1.670025</v>
+      </c>
+      <c r="O24">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="P24">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="Q24">
+        <v>0.3645857555666666</v>
+      </c>
+      <c r="R24">
+        <v>3.2812718001</v>
+      </c>
+      <c r="S24">
+        <v>0.001168812571439831</v>
+      </c>
+      <c r="T24">
+        <v>0.001168812571439832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.964804</v>
+      </c>
+      <c r="I25">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J25">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.480867666666667</v>
+      </c>
+      <c r="N25">
+        <v>4.442603</v>
+      </c>
+      <c r="O25">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="P25">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="Q25">
+        <v>0.9698715716457778</v>
+      </c>
+      <c r="R25">
+        <v>8.728844144811999</v>
+      </c>
+      <c r="S25">
+        <v>0.003109276948738079</v>
+      </c>
+      <c r="T25">
+        <v>0.003109276948738079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.964804</v>
+      </c>
+      <c r="I26">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J26">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.054774</v>
+      </c>
+      <c r="N26">
+        <v>36.164322</v>
+      </c>
+      <c r="O26">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="P26">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="Q26">
+        <v>7.895089391432</v>
+      </c>
+      <c r="R26">
+        <v>71.055804522888</v>
+      </c>
+      <c r="S26">
+        <v>0.02531058768054256</v>
+      </c>
+      <c r="T26">
+        <v>0.02531058768054255</v>
       </c>
     </row>
   </sheetData>
